--- a/artfynd/A 33970-2024 artfynd.xlsx
+++ b/artfynd/A 33970-2024 artfynd.xlsx
@@ -2939,7 +2939,7 @@
         <v>124226880</v>
       </c>
       <c r="B22" t="n">
-        <v>57296</v>
+        <v>57300</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
